--- a/FPL.xlsx
+++ b/FPL.xlsx
@@ -1453,47 +1453,47 @@
       <c r="T25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="0" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Mohamed Salah</t>
         </is>
       </c>
-      <c r="C26" s="0" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="0" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Ollie Watkins</t>
         </is>
       </c>
-      <c r="C27" s="0" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>FWD</t>
         </is>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="0" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Joachim Andersen</t>
         </is>
       </c>
-      <c r="C28" s="0" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>DEF</t>
         </is>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" t="n">
         <v>51</v>
       </c>
     </row>

--- a/FPL.xlsx
+++ b/FPL.xlsx
@@ -1453,47 +1453,47 @@
       <c r="T25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>Mohamed Salah</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>MID</t>
         </is>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="0" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>Ollie Watkins</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>FWD</t>
         </is>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="0" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="0" t="inlineStr">
         <is>
           <t>Joachim Andersen</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="0" t="inlineStr">
         <is>
           <t>DEF</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="0" t="n">
         <v>51</v>
       </c>
     </row>

--- a/FPL.xlsx
+++ b/FPL.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="68800" windowHeight="27060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -377,7 +377,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -436,16 +436,14 @@
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Ollie Watkins</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>FWD</t>
-        </is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>3</v>
@@ -1468,7 +1466,7 @@
       <c r="S25" s="4" t="n"/>
       <c r="T25" s="4" t="n"/>
     </row>
-    <row r="26" ht="13" customHeight="1" s="5">
+    <row r="26">
       <c r="B26" t="inlineStr">
         <is>
           <t>Mohamed Salah</t>
@@ -1483,7 +1481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" ht="13" customHeight="1" s="5">
+    <row r="27">
       <c r="B27" t="inlineStr">
         <is>
           <t>Ollie Watkins</t>
@@ -1498,7 +1496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" ht="13" customHeight="1" s="5">
+    <row r="28">
       <c r="B28" t="inlineStr">
         <is>
           <t>Joachim Andersen</t>
